--- a/xlsx/FR/CC_anthropogenic_FR_inc.xlsx
+++ b/xlsx/FR/CC_anthropogenic_FR_inc.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">(Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of climate change anthropogenic&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most</t>
   </si>
 </sst>
 </file>
@@ -377,64 +377,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.161861936309903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0925536410943139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.118612236315852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.075778830433937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.18638597311029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.191354308868699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.294845471641789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.293936704407358</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B6" t="n">
+        <v>0.238294382622166</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.346376515195692</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/CC_anthropogenic_FR_inc.xlsx
+++ b/xlsx/FR/CC_anthropogenic_FR_inc.xlsx
@@ -383,10 +383,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.161861936309903</v>
+        <v>0.166312080003655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0925536410943139</v>
+        <v>0.113029385100395</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.118612236315852</v>
+        <v>0.132892005088687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.075778830433937</v>
+        <v>0.0850088587250139</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18638597311029</v>
+        <v>0.191639685527224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191354308868699</v>
+        <v>0.178185668549335</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294845471641789</v>
+        <v>0.252961743329084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293936704407358</v>
+        <v>0.289487530336721</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238294382622166</v>
+        <v>0.25619448605135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.346376515195692</v>
+        <v>0.334288557288536</v>
       </c>
     </row>
   </sheetData>
